--- a/examples/palabra/lab2/lab2_result.xlsx
+++ b/examples/palabra/lab2/lab2_result.xlsx
@@ -7222,7 +7222,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as1r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as1r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as2r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as2r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as3r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as3r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as1r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as1r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as2r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as2r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as3r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as3r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>

--- a/examples/palabra/lab2/lab2_result.xlsx
+++ b/examples/palabra/lab2/lab2_result.xlsx
@@ -5699,7 +5699,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Check bgp network (1.0.0.0/8) for as1r1</t>
+          <t>Check bgpd network (1.0.0.0/8) for as1r1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Check bgp network (1.0.0.0/8) for as1r2</t>
+          <t>Check bgpd network (1.0.0.0/8) for as1r2</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5733,7 +5733,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Check bgp network (2.0.0.0/8) for as2r1</t>
+          <t>Check bgpd network (2.0.0.0/8) for as2r1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5750,7 +5750,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Check bgp network (2.0.0.0/8) for as2r2</t>
+          <t>Check bgpd network (2.0.0.0/8) for as2r2</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5767,7 +5767,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Check bgp network (3.0.0.0/8) for as3r1</t>
+          <t>Check bgpd network (3.0.0.0/8) for as3r1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5784,7 +5784,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Check bgp network (3.0.0.0/8) for as3r2</t>
+          <t>Check bgpd network (3.0.0.0/8) for as3r2</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
